--- a/EOL_template.xlsx
+++ b/EOL_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://siemensapc-my.sharepoint.com/personal/shaikh_shoeb_siemens_com/Documents/Mini-projs/EOL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_F25DC773A252ABDACC1048F8215964E85BDE590B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AAC8C00-3424-415A-B143-EAA29E9768DD}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_F25DC773A252ABDACC1048F8215964E85BDE590B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{807594C0-31A2-4B1A-A8A0-BF6888BBFC5F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,77 +397,161 @@
       <c r="D2">
         <v>12</v>
       </c>
+      <c r="E2">
+        <v>2000</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2014</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
         <v>200</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>1900</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2015</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>400</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>1800</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2016</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>600</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>1700</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2017</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
         <v>800</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>1600</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2018</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
         <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2019</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
         <v>1200</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>1400</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2020</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
         <v>1400</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>1300</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2021</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
         <v>1600</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2022</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
         <v>1800</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
